--- a/biology/Botanique/Mescaline/Mescaline.xlsx
+++ b/biology/Botanique/Mescaline/Mescaline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La mescaline (ou 3,4,5-triméthoxyphénéthylamine) est un alcaloïde psychotrope aux propriétés psychédéliques et enthéogènes qui possède une structure de phényléthylamine substituée. Elle est souvent rattachée à la catégorie mal définie des « drogues hallucinogènes ».
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers travaux sur la mescaline datent de 1888, mais la molécule n'a été isolée et identifiée qu'en 1894[6] par l'Allemand Arthur Heffter, puis synthétisée en 1919 par Ernst Späth (en). Le pharmacologiste allemand Louis Lewin s'y était déjà intéressé en 1886. On décèle la mescaline dans plusieurs cactus comme certaines espèces des genres Echinopsis ou Lophophora, plus connu sous le nom de peyotl dont le principe actif le plus présent est la mescaline. L'usage du peyotl à des fins rituelles par les Amérindiens est ancien et son utilisation cérémoniale remonte à au moins trois mille ans comme l'ont démontré des fouilles archéologiques dans des grottes du Texas[7],[8]. Il faut souligner que durant les cérémonies chamaniques, le chaman utilise le cactus entier, qui contient parfois d'autres principes actifs, et non de la mescaline purifiée ou synthétisée.
-En Occident, la mescaline est commercialisée par deux grands laboratoires pharmaceutiques, Merck, en Allemagne, et Roche en Suisse. La substance fait l'objet de plusieurs thèses et articles de médecine[9],[10] et de pharmacie et est notamment particulièrement étudiée par le psychiatre Henri Ey[11]. Des intellectuels comme Jean-Paul Sartre[12], Antonin Artaud[13], Allen Ginsberg[14], ou Henri Michaux[15] se prêtent à l'expérience de la substance dans un cadre expérimental.
-Aldous Huxley la découvre en 1953 grâce au psychiatre Humphry Osmond, et à la suite de ses propos élogieux dans son ouvrage Les Portes de la perception, de nombreux psychiatres l'utiliseront comme moyen d'investigation du psychisme mais également dans un but thérapeutique. À partir des années 1950 et en lien avec l'intérêt porté à cette époque sur un autre psychédélique, le LSD, la mescaline devient de plus en plus étudiée en médecine jusqu'à son classement dans la liste des stupéfiants en 1971 qui sonne l'arrêt des recherches sur cette classe de substances[16],[17].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers travaux sur la mescaline datent de 1888, mais la molécule n'a été isolée et identifiée qu'en 1894 par l'Allemand Arthur Heffter, puis synthétisée en 1919 par Ernst Späth (en). Le pharmacologiste allemand Louis Lewin s'y était déjà intéressé en 1886. On décèle la mescaline dans plusieurs cactus comme certaines espèces des genres Echinopsis ou Lophophora, plus connu sous le nom de peyotl dont le principe actif le plus présent est la mescaline. L'usage du peyotl à des fins rituelles par les Amérindiens est ancien et son utilisation cérémoniale remonte à au moins trois mille ans comme l'ont démontré des fouilles archéologiques dans des grottes du Texas,. Il faut souligner que durant les cérémonies chamaniques, le chaman utilise le cactus entier, qui contient parfois d'autres principes actifs, et non de la mescaline purifiée ou synthétisée.
+En Occident, la mescaline est commercialisée par deux grands laboratoires pharmaceutiques, Merck, en Allemagne, et Roche en Suisse. La substance fait l'objet de plusieurs thèses et articles de médecine, et de pharmacie et est notamment particulièrement étudiée par le psychiatre Henri Ey. Des intellectuels comme Jean-Paul Sartre, Antonin Artaud, Allen Ginsberg, ou Henri Michaux se prêtent à l'expérience de la substance dans un cadre expérimental.
+Aldous Huxley la découvre en 1953 grâce au psychiatre Humphry Osmond, et à la suite de ses propos élogieux dans son ouvrage Les Portes de la perception, de nombreux psychiatres l'utiliseront comme moyen d'investigation du psychisme mais également dans un but thérapeutique. À partir des années 1950 et en lien avec l'intérêt porté à cette époque sur un autre psychédélique, le LSD, la mescaline devient de plus en plus étudiée en médecine jusqu'à son classement dans la liste des stupéfiants en 1971 qui sonne l'arrêt des recherches sur cette classe de substances,.
 </t>
         </is>
       </c>
@@ -546,17 +560,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa structure est proche de celle de l'adrénaline (les deux molécules partagent la même base phényléthylamine, qui est un dérivé de la phénylalanine, un acide aminé). Elle est également proche de celle de l'amphétamine.
-Extraction
-La molécule est présente à l'état naturel dans plusieurs variétés de cactus (famille des cactacées) dont le Lophophora williamsii ou Anhalonium lewinii[18] (voir aussi peyotl), le Trichocereus pachanoi (San Pedro) et le Trichocereus peruvianus (en) (torche péruvienne), le Echinopsis scopulicola, ainsi que dans le Trichocereus bridgesii (torche bolivienne).
-Il est possible d'extraire la mescaline en faisant sécher les boutons puis en les faisant tremper dans du méthanol pendant une journée. Le résultat est ensuite filtré, en laissant le méthanol s'évaporer. La poudre obtenue est ensuite traitée avec du chloroforme et de l'acide chlorhydrique pour extraire les alcaloïdes[19]. Il existe une méthode alternative qui utilise la faible solubilité du sulfate de mescaline, où l'acide chlorhydrique est remplacé par de l'acide sulfurique.
-Un procédé moins élaboré consisterait à cuire les boutons dans un autocuiseur[réf. nécessaire].
-Synthèse
-De nombreuses voies de synthèse de la mescaline sont décrites dans la littérature scientifique. Une publication de 2018 en recense neuf, dont sept qualifiées de classiques et deux de plus modernes[20].
-Une synthèse classique (décrite dès 1919 par Ernst Späth[21] et reprise en 1991 par Alexander Shulgin dans PiHKAL) démarre par une réaction de Henry au cours de laquelle le 3,4,5-triméthoxybenzaldéhyde se condense avec le nitrométhane en présence d'acide acétique (solvant) et de cyclohexylamine (catalyseur). Pour obtenir la mescaline, le nitrostyrène formé doit ensuite subir une double réduction, à la fois de la double liaison éthylénique de la chaîne latérale et du groupe nitro qu'il faut convertir en amine. Pour cela le plus simple est d'employer un hydrure capable de réduire les deux fonctions, typiquement LiAlH4. À défaut il est possible de faire agir successivement deux agents réducteurs, l'un pour la double liaison et l'autre pour le groupe nitro.
-Une alternative consiste à traiter successivement le 3,4,5-triméthoxybenzaldéhyde par le tétrahydruroborate de sodium, le tribromure de phosphore, et le cyanure, puis à hydrogéner le produit obtenu[22].
 </t>
         </is>
       </c>
@@ -582,16 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pharmacologie</t>
+          <t>Chimie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La demi-vie de la mescaline est de l'ordre de six heures. La plus grande partie est éliminée par les urines.
-Elle agit comme un agoniste sur les récepteurs sérotoninergiques[6], en particulier sur les récepteurs 5-HT2A et 5-HT2C[23].
-La raison pour laquelle l'activation de ces récepteurs induit des effets psychédéliques reste méconnue, mais il semblerait que ce soit lié à l'activation de neurones dans le cortex préfrontal[24].
-Le dosage effectif est de 200–500 mg pour un adulte (ou 3,75 mg kg−1) avec des effets qui durent au moins 12 heures[6],[25]. Ce dosage en fait une drogue à faible activité comparée au LSD puisqu'il faut une dose 5 000 fois plus faible de LSD pour obtenir des effets similaires ; autrement dit, 100 µg de LSD équivalent à environ 500 mg de mescaline (entre 250 mg et 1 000 mg)[26].
-Comme pour les autres phényléthylamines psychédéliques, le rapport entre dose létale et dose active est assez élevé par rapport à d'autres classes d'hallucinogènes (anticholinergiques par exemple).
+          <t>Extraction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule est présente à l'état naturel dans plusieurs variétés de cactus (famille des cactacées) dont le Lophophora williamsii ou Anhalonium lewinii (voir aussi peyotl), le Trichocereus pachanoi (San Pedro) et le Trichocereus peruvianus (en) (torche péruvienne), le Echinopsis scopulicola, ainsi que dans le Trichocereus bridgesii (torche bolivienne).
+Il est possible d'extraire la mescaline en faisant sécher les boutons puis en les faisant tremper dans du méthanol pendant une journée. Le résultat est ensuite filtré, en laissant le méthanol s'évaporer. La poudre obtenue est ensuite traitée avec du chloroforme et de l'acide chlorhydrique pour extraire les alcaloïdes. Il existe une méthode alternative qui utilise la faible solubilité du sulfate de mescaline, où l'acide chlorhydrique est remplacé par de l'acide sulfurique.
+Un procédé moins élaboré consisterait à cuire les boutons dans un autocuiseur[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -617,12 +629,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Usage détourné et récréatif</t>
+          <t>Chimie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle se vend (illégalement dans la plupart des pays) sous forme de poudre de différentes couleurs, de liquide, de capsules de gélatine ou de comprimés. Les échantillons vendus comme de la mescaline contiennent très souvent de la PCP ou du LSD.
+          <t>Synthèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses voies de synthèse de la mescaline sont décrites dans la littérature scientifique. Une publication de 2018 en recense neuf, dont sept qualifiées de classiques et deux de plus modernes.
+Une synthèse classique (décrite dès 1919 par Ernst Späth et reprise en 1991 par Alexander Shulgin dans PiHKAL) démarre par une réaction de Henry au cours de laquelle le 3,4,5-triméthoxybenzaldéhyde se condense avec le nitrométhane en présence d'acide acétique (solvant) et de cyclohexylamine (catalyseur). Pour obtenir la mescaline, le nitrostyrène formé doit ensuite subir une double réduction, à la fois de la double liaison éthylénique de la chaîne latérale et du groupe nitro qu'il faut convertir en amine. Pour cela le plus simple est d'employer un hydrure capable de réduire les deux fonctions, typiquement LiAlH4. À défaut il est possible de faire agir successivement deux agents réducteurs, l'un pour la double liaison et l'autre pour le groupe nitro.
+Une alternative consiste à traiter successivement le 3,4,5-triméthoxybenzaldéhyde par le tétrahydruroborate de sodium, le tribromure de phosphore, et le cyanure, puis à hydrogéner le produit obtenu.
 </t>
         </is>
       </c>
@@ -648,10 +668,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La demi-vie de la mescaline est de l'ordre de six heures. La plus grande partie est éliminée par les urines.
+Elle agit comme un agoniste sur les récepteurs sérotoninergiques, en particulier sur les récepteurs 5-HT2A et 5-HT2C.
+La raison pour laquelle l'activation de ces récepteurs induit des effets psychédéliques reste méconnue, mais il semblerait que ce soit lié à l'activation de neurones dans le cortex préfrontal.
+Le dosage effectif est de 200–500 mg pour un adulte (ou 3,75 mg kg−1) avec des effets qui durent au moins 12 heures,. Ce dosage en fait une drogue à faible activité comparée au LSD puisqu'il faut une dose 5 000 fois plus faible de LSD pour obtenir des effets similaires ; autrement dit, 100 µg de LSD équivalent à environ 500 mg de mescaline (entre 250 mg et 1 000 mg).
+Comme pour les autres phényléthylamines psychédéliques, le rapport entre dose létale et dose active est assez élevé par rapport à d'autres classes d'hallucinogènes (anticholinergiques par exemple).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mescaline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usage détourné et récréatif</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se vend (illégalement dans la plupart des pays) sous forme de poudre de différentes couleurs, de liquide, de capsules de gélatine ou de comprimés. Les échantillons vendus comme de la mescaline contiennent très souvent de la PCP ou du LSD.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mescaline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets physiques peuvent inclure :
 mydriase (dilatation des pupilles) ;
@@ -675,71 +767,75 @@
 confusion onirique et perte des repères spatio-temporels.
 Dans le cas d'un bad trip, les effets sont plutôt négatifs, l'euphorie et l'extase pouvant laisser place à l'angoisse et la peur.
 La mescaline ne semble pas provoquer de dépendance physique ni psychique.
-Aucun cas de décès directement lié à la mescaline n'a jamais été recensé en France. Utilisée dans un contexte traditionnel (chamanique) ou dans le cadre d'un groupe religieux comme l'église des Indiens Natifs aux États-Unis (NAC), elle possède des propriétés anti-addictives, permettant de lutter contre l'alcoolisation de ces populations[27].
-En revanche, comme toute substance hallucinogène, elle peut causer des accidents psychiatriques graves et durables, parfois dès la première prise. On parle alors de « syndrome post-hallucinatoire persistant », à savoir angoisses, phobies, état confusionnel, dépression voire pseudo-hallucinations, critiquées et reconnues comme telles, pouvant persister plusieurs années[28].
-Ces incidents ne semblent pas survenir chez les Navajos qui l'utilisent dans leurs rituels[29].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mescaline</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Aucun cas de décès directement lié à la mescaline n'a jamais été recensé en France. Utilisée dans un contexte traditionnel (chamanique) ou dans le cadre d'un groupe religieux comme l'église des Indiens Natifs aux États-Unis (NAC), elle possède des propriétés anti-addictives, permettant de lutter contre l'alcoolisation de ces populations.
+En revanche, comme toute substance hallucinogène, elle peut causer des accidents psychiatriques graves et durables, parfois dès la première prise. On parle alors de « syndrome post-hallucinatoire persistant », à savoir angoisses, phobies, état confusionnel, dépression voire pseudo-hallucinations, critiquées et reconnues comme telles, pouvant persister plusieurs années.
+Ces incidents ne semblent pas survenir chez les Navajos qui l'utilisent dans leurs rituels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mescaline</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Législation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La mescaline est répertoriée par la convention sur les substances psychotropes de 1971 ce qui rend son usage réglementé et surveillé.
-La mescaline est classée comme stupéfiant en France par l'arrêté du 22 février 1990 fixant la liste des substances classées comme stupéfiants (JO du 7 juin 1990)[30].
-La mescaline a été rendue illégale aux États-Unis par le Comprehensive Drug Abuse Prevention and Control Act en 1970. Une dérogation autorise cependant les membres de la Native American Church (environ 300 000 membres[31],[32]) à l'utiliser pour leurs sacrements.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mescaline</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+La mescaline est classée comme stupéfiant en France par l'arrêté du 22 février 1990 fixant la liste des substances classées comme stupéfiants (JO du 7 juin 1990).
+La mescaline a été rendue illégale aux États-Unis par le Comprehensive Drug Abuse Prevention and Control Act en 1970. Une dérogation autorise cependant les membres de la Native American Church (environ 300 000 membres,) à l'utiliser pour leurs sacrements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mescaline</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Consommateurs célèbres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Antonin Artaud
@@ -764,33 +860,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mescaline</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mescaline</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains écrivains comme Jean-Paul Sartre et Henri Michaux ont été de grands consommateurs de mescaline[33]. Michaux lui a consacré un livre, Misérable Miracle, dans lequel il parle de son expérience personnelle avec cette drogue.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains écrivains comme Jean-Paul Sartre et Henri Michaux ont été de grands consommateurs de mescaline. Michaux lui a consacré un livre, Misérable Miracle, dans lequel il parle de son expérience personnelle avec cette drogue.
 Dans le roman Las Vegas Parano (1972) et son adaptation cinématographique (1998), les deux personnages principaux (interprétés dans le film par Johnny Depp et Benicio del Toro) en utilisent à très forte dose (« la bonne mescaline ça met du temps à faire effet »). En effet, dans Las Vegas Parano les personnages enchaînent expériences, délires, et par conséquent, déformations de la perception en tous genres. Le film traduit bien l'aspect hallucinogène qui se manifeste notamment par la peur constante d'autrui dans leurs délires prolongés.
 Dans le film Matrix (1999), le personnage de Choi, qui achète un programme pirate à Neo au début du film, y fait allusion comme étant pour lui « la seule façon de planer ».
 Dans le film A Single Man (2009), réalisé par le couturier Tom Ford, le personnage principal (incarné par Colin Firth) est un professeur d'université dans les années 1960 qui, lors d'une discussion avec l'un de ses étudiants, déclare s'être rasé un sourcil après avoir pris de la mescaline. Dans le film Les Amants passagers (2013) de Pedro Almodóvar, plusieurs personnages prennent de la mescaline, volontairement ou à leur insu, durant leur vol.
@@ -798,31 +896,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mescaline</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mescaline</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mescaline</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Molécules voisines</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs dérivés de la mescaline ont été synthétisés, comme l'escaline, la proscaline, la thiomescaline, la triméthoxyamphétamine (TMA), etc. Ces dérivés sont pour la plupart bien plus puissants que la mescaline.
 </t>
